--- a/biology/Médecine/Infantilisme/Infantilisme.xlsx
+++ b/biology/Médecine/Infantilisme/Infantilisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infantilisme est le nom d'une maladie dans laquelle un adulte présente les caractéristiques psychiques, physiques ou génitales d'un enfant et qui est causée par un déficit en hormones thyroïdiennes ou hormone de croissance au moment de la puberté[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infantilisme est le nom d'une maladie dans laquelle un adulte présente les caractéristiques psychiques, physiques ou génitales d'un enfant et qui est causée par un déficit en hormones thyroïdiennes ou hormone de croissance au moment de la puberté.
 Ces hormones, et notamment la testostérone, sont responsables de l'apparition des caractères sexuels secondaires comme les poils pubiens, les poils faciaux, la modification du ton de la voix, la croissance des os et l’augmentation du volume musculaire.[réf. nécessaire]
-Les adultes souffrant d’infantilisme présentent notamment des caractéristiques telles qu’une petite taille, un développement insuffisant des organes génitaux, une absence de caractères sexuels secondaires, un psychisme infantile[3].
+Les adultes souffrant d’infantilisme présentent notamment des caractéristiques telles qu’une petite taille, un développement insuffisant des organes génitaux, une absence de caractères sexuels secondaires, un psychisme infantile.
 L'origine du mot « infantilisme » provient du mot latin infantia pour enfance et –isme pour disposition.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Infantilisme mental</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infantilisme peut aussi désigner une atteinte restreinte aux capacités mentales et psychiques[4]. Il est alors préférable d'utiliser une terminologie moins ambiguë, comme puérilisme mental ou immaturité affective. Le Syndrome de Peter Pan peut être vu comme une forme d’infantilisme, du fait de l'immaturité affective des patients qui en souffrent[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infantilisme peut aussi désigner une atteinte restreinte aux capacités mentales et psychiques. Il est alors préférable d'utiliser une terminologie moins ambiguë, comme puérilisme mental ou immaturité affective. Le Syndrome de Peter Pan peut être vu comme une forme d’infantilisme, du fait de l'immaturité affective des patients qui en souffrent.
 </t>
         </is>
       </c>
